--- a/result/TrailATR/summary_HK50_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_HK50_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,10 +598,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -623,25 +623,25 @@
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>23229.90000000001</v>
+        <v>23514.39999999996</v>
       </c>
       <c r="L3" t="n">
         <v>-223.8000000000029</v>
       </c>
       <c r="M3" t="n">
-        <v>1408</v>
+        <v>1334</v>
       </c>
       <c r="N3" t="n">
-        <v>23453.70000000001</v>
+        <v>23738.19999999996</v>
       </c>
       <c r="O3" t="n">
         <v>-1120.099999999999</v>
@@ -650,24 +650,24 @@
         <v>3453</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.65745738636364</v>
+        <v>17.79475262368813</v>
       </c>
       <c r="R3" t="n">
-        <v>281.0584951067307</v>
+        <v>283.6893872851471</v>
       </c>
       <c r="S3" t="n">
         <v>-38</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2308238636363636</v>
+        <v>0.2338830584707646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2024</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>23096.50000000005</v>
+        <v>23229.90000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-328.700000000008</v>
+        <v>-223.8000000000029</v>
       </c>
       <c r="M4" t="n">
-        <v>2150</v>
+        <v>1408</v>
       </c>
       <c r="N4" t="n">
-        <v>23425.20000000006</v>
+        <v>23453.70000000001</v>
       </c>
       <c r="O4" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>2012.799999999999</v>
+        <v>3453</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.89544186046514</v>
+        <v>16.65745738636364</v>
       </c>
       <c r="R4" t="n">
-        <v>217.6101765910031</v>
+        <v>281.0584951067307</v>
       </c>
       <c r="S4" t="n">
-        <v>-35.75000000000182</v>
+        <v>-38</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2474418604651163</v>
+        <v>0.2308238636363636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>22952.09999999997</v>
+        <v>23096.50000000005</v>
       </c>
       <c r="L5" t="n">
-        <v>-234.8000000000029</v>
+        <v>-328.700000000008</v>
       </c>
       <c r="M5" t="n">
-        <v>1480</v>
+        <v>2150</v>
       </c>
       <c r="N5" t="n">
-        <v>23186.89999999998</v>
+        <v>23425.20000000006</v>
       </c>
       <c r="O5" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>3453</v>
+        <v>2012.799999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.66682432432431</v>
+        <v>10.89544186046514</v>
       </c>
       <c r="R5" t="n">
-        <v>276.8745101893957</v>
+        <v>217.6101765910031</v>
       </c>
       <c r="S5" t="n">
-        <v>-37.40000000000146</v>
+        <v>-35.75000000000182</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2364864864864865</v>
+        <v>0.2474418604651163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,28 +818,28 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>21672.79999999997</v>
+        <v>22952.09999999997</v>
       </c>
       <c r="L6" t="n">
-        <v>-223.8000000000029</v>
+        <v>-234.8000000000029</v>
       </c>
       <c r="M6" t="n">
-        <v>1658</v>
+        <v>1480</v>
       </c>
       <c r="N6" t="n">
-        <v>21896.59999999997</v>
+        <v>23186.89999999998</v>
       </c>
       <c r="O6" t="n">
         <v>-1120.099999999999</v>
@@ -848,24 +848,24 @@
         <v>3453</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.20663449939685</v>
+        <v>15.66682432432431</v>
       </c>
       <c r="R6" t="n">
-        <v>261.0827667886281</v>
+        <v>276.8745101893957</v>
       </c>
       <c r="S6" t="n">
-        <v>-37</v>
+        <v>-37.40000000000146</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2316043425814234</v>
+        <v>0.2364864864864865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,28 +884,28 @@
         <v>2024</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>20973.19999999997</v>
+        <v>21672.79999999997</v>
       </c>
       <c r="L7" t="n">
         <v>-223.8000000000029</v>
       </c>
       <c r="M7" t="n">
-        <v>1334</v>
+        <v>1658</v>
       </c>
       <c r="N7" t="n">
-        <v>21196.99999999997</v>
+        <v>21896.59999999997</v>
       </c>
       <c r="O7" t="n">
         <v>-1120.099999999999</v>
@@ -914,24 +914,24 @@
         <v>3453</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.88980509745126</v>
+        <v>13.20663449939685</v>
       </c>
       <c r="R7" t="n">
-        <v>283.0524021357787</v>
+        <v>261.0827667886281</v>
       </c>
       <c r="S7" t="n">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="T7" t="n">
-        <v>0.232383808095952</v>
+        <v>0.2316043425814234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2024</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>19567.5</v>
+        <v>20973.19999999997</v>
       </c>
       <c r="L8" t="n">
-        <v>-804.7000000000007</v>
+        <v>-223.8000000000029</v>
       </c>
       <c r="M8" t="n">
-        <v>1436</v>
+        <v>1334</v>
       </c>
       <c r="N8" t="n">
-        <v>20372.2</v>
+        <v>21196.99999999997</v>
       </c>
       <c r="O8" t="n">
-        <v>-599.5</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>4148.400000000001</v>
+        <v>3453</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.18676880222842</v>
+        <v>15.88980509745126</v>
       </c>
       <c r="R8" t="n">
-        <v>272.361007087067</v>
+        <v>283.0524021357787</v>
       </c>
       <c r="S8" t="n">
-        <v>-30.79999999999745</v>
+        <v>-38</v>
       </c>
       <c r="T8" t="n">
-        <v>0.25</v>
+        <v>0.232383808095952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2024</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="I9" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>18138.09999999999</v>
+        <v>19567.5</v>
       </c>
       <c r="L9" t="n">
-        <v>-939.7999999999993</v>
+        <v>-804.7000000000007</v>
       </c>
       <c r="M9" t="n">
-        <v>1500</v>
+        <v>1436</v>
       </c>
       <c r="N9" t="n">
-        <v>19077.89999999999</v>
+        <v>20372.2</v>
       </c>
       <c r="O9" t="n">
-        <v>-1120.099999999999</v>
+        <v>-599.5</v>
       </c>
       <c r="P9" t="n">
-        <v>3453</v>
+        <v>4148.400000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.71859999999999</v>
+        <v>14.18676880222842</v>
       </c>
       <c r="R9" t="n">
-        <v>277.4975874862819</v>
+        <v>272.361007087067</v>
       </c>
       <c r="S9" t="n">
-        <v>-37.79999999999927</v>
+        <v>-30.79999999999745</v>
       </c>
       <c r="T9" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2024</v>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>17252.49999999996</v>
+        <v>18138.09999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-2456.200000000008</v>
+        <v>-939.7999999999993</v>
       </c>
       <c r="M10" t="n">
-        <v>1608</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="n">
-        <v>19708.69999999996</v>
+        <v>19077.89999999999</v>
       </c>
       <c r="O10" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>3459.5</v>
+        <v>3453</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.2566542288557</v>
+        <v>12.71859999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>268.0351143606899</v>
+        <v>277.4975874862819</v>
       </c>
       <c r="S10" t="n">
-        <v>-38.35000000000036</v>
+        <v>-37.79999999999927</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2307213930348259</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>15517.49999999987</v>
+        <v>17701.19999999996</v>
       </c>
       <c r="L11" t="n">
-        <v>-1620.900000000031</v>
+        <v>-310.3000000000029</v>
       </c>
       <c r="M11" t="n">
-        <v>1508</v>
+        <v>1344</v>
       </c>
       <c r="N11" t="n">
-        <v>17138.3999999999</v>
+        <v>18011.49999999997</v>
       </c>
       <c r="O11" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>3459.5</v>
+        <v>4196.600000000002</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.36498673740046</v>
+        <v>13.40141369047617</v>
       </c>
       <c r="R11" t="n">
-        <v>273.6803882051649</v>
+        <v>289.58421783093</v>
       </c>
       <c r="S11" t="n">
-        <v>-38.25</v>
+        <v>-38</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2062334217506631</v>
+        <v>0.212797619047619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J12" t="n">
         <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>15379.69999999998</v>
+        <v>17252.49999999996</v>
       </c>
       <c r="L12" t="n">
-        <v>-46.60000000000218</v>
+        <v>-2456.200000000008</v>
       </c>
       <c r="M12" t="n">
-        <v>1372</v>
+        <v>1608</v>
       </c>
       <c r="N12" t="n">
-        <v>15426.29999999998</v>
+        <v>19708.69999999996</v>
       </c>
       <c r="O12" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>3861.199999999997</v>
+        <v>3459.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.24365889212826</v>
+        <v>12.2566542288557</v>
       </c>
       <c r="R12" t="n">
-        <v>285.9474399383779</v>
+        <v>268.0351143606899</v>
       </c>
       <c r="S12" t="n">
-        <v>-43.05000000000109</v>
+        <v>-38.35000000000036</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2113702623906706</v>
+        <v>0.2307213930348259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>14958.89999999991</v>
+        <v>15517.49999999987</v>
       </c>
       <c r="L13" t="n">
-        <v>-4212.900000000063</v>
+        <v>-1620.900000000031</v>
       </c>
       <c r="M13" t="n">
-        <v>2002</v>
+        <v>1508</v>
       </c>
       <c r="N13" t="n">
-        <v>19171.79999999998</v>
+        <v>17138.3999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>3487.099999999999</v>
+        <v>3459.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.576323676323666</v>
+        <v>11.36498673740046</v>
       </c>
       <c r="R13" t="n">
-        <v>241.6170010443749</v>
+        <v>273.6803882051649</v>
       </c>
       <c r="S13" t="n">
-        <v>-32.64999999999782</v>
+        <v>-38.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2602397602397603</v>
+        <v>0.2062334217506631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>14444.79999999998</v>
+        <v>15379.69999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>-4507.000000000047</v>
+        <v>-46.60000000000218</v>
       </c>
       <c r="M14" t="n">
-        <v>1919</v>
+        <v>1372</v>
       </c>
       <c r="N14" t="n">
-        <v>18951.80000000003</v>
+        <v>15426.29999999998</v>
       </c>
       <c r="O14" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>3281.599999999999</v>
+        <v>3861.199999999997</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.875872850442954</v>
+        <v>11.24365889212826</v>
       </c>
       <c r="R14" t="n">
-        <v>250.4121700315353</v>
+        <v>285.9474399383779</v>
       </c>
       <c r="S14" t="n">
-        <v>-34.29999999999927</v>
+        <v>-43.05000000000109</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2516935904116727</v>
+        <v>0.2113702623906706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1415,51 +1415,51 @@
         <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>13539.29999999985</v>
+        <v>14958.89999999991</v>
       </c>
       <c r="L15" t="n">
-        <v>-2350.600000000017</v>
+        <v>-4212.900000000063</v>
       </c>
       <c r="M15" t="n">
-        <v>3135</v>
+        <v>2002</v>
       </c>
       <c r="N15" t="n">
-        <v>15889.89999999986</v>
+        <v>19171.79999999998</v>
       </c>
       <c r="O15" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>2207.299999999999</v>
+        <v>3487.099999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.068548644338074</v>
+        <v>9.576323676323666</v>
       </c>
       <c r="R15" t="n">
-        <v>196.8373449730601</v>
+        <v>241.6170010443749</v>
       </c>
       <c r="S15" t="n">
-        <v>-33</v>
+        <v>-32.64999999999782</v>
       </c>
       <c r="T15" t="n">
-        <v>0.307177033492823</v>
+        <v>0.2602397602397603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="I16" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>13524.60000000006</v>
+        <v>14444.79999999998</v>
       </c>
       <c r="L16" t="n">
-        <v>-3127.199999999975</v>
+        <v>-4507.000000000047</v>
       </c>
       <c r="M16" t="n">
-        <v>1460</v>
+        <v>1919</v>
       </c>
       <c r="N16" t="n">
-        <v>16651.80000000003</v>
+        <v>18951.80000000003</v>
       </c>
       <c r="O16" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>3528.799999999999</v>
+        <v>3281.599999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.40534246575345</v>
+        <v>9.875872850442954</v>
       </c>
       <c r="R16" t="n">
-        <v>274.9547145257764</v>
+        <v>250.4121700315353</v>
       </c>
       <c r="S16" t="n">
-        <v>-42.59999999999854</v>
+        <v>-34.29999999999927</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1965753424657534</v>
+        <v>0.2516935904116727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1547,51 +1547,51 @@
         <v>60</v>
       </c>
       <c r="H17" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
         <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>12252.19999999999</v>
+        <v>13539.29999999985</v>
       </c>
       <c r="L17" t="n">
-        <v>-4179.000000000036</v>
+        <v>-2350.600000000017</v>
       </c>
       <c r="M17" t="n">
-        <v>1692</v>
+        <v>3135</v>
       </c>
       <c r="N17" t="n">
-        <v>16431.20000000002</v>
+        <v>15889.89999999986</v>
       </c>
       <c r="O17" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>3535.5</v>
+        <v>2207.299999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.711111111111125</v>
+        <v>5.068548644338074</v>
       </c>
       <c r="R17" t="n">
-        <v>264.7569695070329</v>
+        <v>196.8373449730601</v>
       </c>
       <c r="S17" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2423167848699763</v>
+        <v>0.307177033492823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1610,54 +1610,54 @@
         <v>2024</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J18" t="n">
         <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>12115.79999999995</v>
+        <v>13524.60000000006</v>
       </c>
       <c r="L18" t="n">
-        <v>-2382.600000000009</v>
+        <v>-3127.199999999975</v>
       </c>
       <c r="M18" t="n">
-        <v>1490</v>
+        <v>1460</v>
       </c>
       <c r="N18" t="n">
-        <v>14498.39999999996</v>
+        <v>16651.80000000003</v>
       </c>
       <c r="O18" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>3861.199999999997</v>
+        <v>3528.799999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.73046979865769</v>
+        <v>11.40534246575345</v>
       </c>
       <c r="R18" t="n">
-        <v>274.967598721666</v>
+        <v>274.9547145257764</v>
       </c>
       <c r="S18" t="n">
-        <v>-40</v>
+        <v>-42.59999999999854</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2026845637583893</v>
+        <v>0.1965753424657534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1676,54 +1676,54 @@
         <v>2024</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J19" t="n">
         <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>11216.89999999997</v>
+        <v>12630.30000000002</v>
       </c>
       <c r="L19" t="n">
-        <v>-667.2999999999993</v>
+        <v>-1703.600000000009</v>
       </c>
       <c r="M19" t="n">
-        <v>1376</v>
+        <v>1331</v>
       </c>
       <c r="N19" t="n">
-        <v>11884.19999999997</v>
+        <v>14333.90000000003</v>
       </c>
       <c r="O19" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>3958.5</v>
+        <v>4039.600000000002</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.63677325581393</v>
+        <v>10.76927122464315</v>
       </c>
       <c r="R19" t="n">
-        <v>279.0600524050496</v>
+        <v>293.5329744463091</v>
       </c>
       <c r="S19" t="n">
         <v>-43</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1954941860465116</v>
+        <v>0.1915852742299023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1742,120 +1742,120 @@
         <v>2024</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>10809.79999999968</v>
+        <v>12252.19999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>-2538.1000000001</v>
+        <v>-4179.000000000036</v>
       </c>
       <c r="M20" t="n">
-        <v>1318</v>
+        <v>1692</v>
       </c>
       <c r="N20" t="n">
-        <v>13347.89999999978</v>
+        <v>16431.20000000002</v>
       </c>
       <c r="O20" t="n">
         <v>-1161.099999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>4196.600000000002</v>
+        <v>3535.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.12738998482533</v>
+        <v>9.711111111111125</v>
       </c>
       <c r="R20" t="n">
-        <v>287.0938715707657</v>
+        <v>264.7569695070329</v>
       </c>
       <c r="S20" t="n">
-        <v>-37.70000000000073</v>
+        <v>-36</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2116843702579666</v>
+        <v>0.2423167848699763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>HK50</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G21" t="n">
-        <v>70</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="I21" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J21" t="n">
         <v>350</v>
       </c>
       <c r="K21" t="n">
-        <v>10293.6</v>
+        <v>12115.79999999995</v>
       </c>
       <c r="L21" t="n">
-        <v>-6064.100000000035</v>
+        <v>-2382.600000000009</v>
       </c>
       <c r="M21" t="n">
-        <v>1816</v>
+        <v>1490</v>
       </c>
       <c r="N21" t="n">
-        <v>16357.70000000003</v>
+        <v>14498.39999999996</v>
       </c>
       <c r="O21" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>3522.5</v>
+        <v>3861.199999999997</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.007544052863455</v>
+        <v>9.73046979865769</v>
       </c>
       <c r="R21" t="n">
-        <v>254.5503363524396</v>
+        <v>274.967598721666</v>
       </c>
       <c r="S21" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2505506607929515</v>
+        <v>0.2026845637583893</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1874,55 +1874,55 @@
         <v>2024</v>
       </c>
       <c r="G22" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>10266.49999999997</v>
+        <v>11216.89999999997</v>
       </c>
       <c r="L22" t="n">
-        <v>-5965.200000000052</v>
+        <v>-667.2999999999993</v>
       </c>
       <c r="M22" t="n">
-        <v>2027</v>
+        <v>1376</v>
       </c>
       <c r="N22" t="n">
-        <v>16231.70000000002</v>
+        <v>11884.19999999997</v>
       </c>
       <c r="O22" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>3487.099999999999</v>
+        <v>3958.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.007745436605832</v>
+        <v>8.63677325581393</v>
       </c>
       <c r="R22" t="n">
-        <v>241.7338686454982</v>
+        <v>279.0600524050496</v>
       </c>
       <c r="S22" t="n">
-        <v>-33.5</v>
+        <v>-43</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2560434139121855</v>
+        <v>0.1954941860465116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" t="n">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>56</v>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>HK50</t>
@@ -1940,54 +1940,54 @@
         <v>2024</v>
       </c>
       <c r="G23" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>9262.099999999944</v>
+        <v>10809.79999999968</v>
       </c>
       <c r="L23" t="n">
-        <v>-5682.500000000047</v>
+        <v>-2538.1000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>1645</v>
+        <v>1318</v>
       </c>
       <c r="N23" t="n">
-        <v>14944.59999999999</v>
+        <v>13347.89999999978</v>
       </c>
       <c r="O23" t="n">
         <v>-1161.099999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>4560.5</v>
+        <v>4196.600000000002</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.084863221884493</v>
+        <v>10.12738998482533</v>
       </c>
       <c r="R23" t="n">
-        <v>273.5621588518418</v>
+        <v>287.0938715707657</v>
       </c>
       <c r="S23" t="n">
-        <v>-36.09999999999854</v>
+        <v>-37.70000000000073</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2376899696048632</v>
+        <v>0.2116843702579666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2006,54 +2006,54 @@
         <v>2024</v>
       </c>
       <c r="G24" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
         <v>1.8</v>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>8848.999999999945</v>
+        <v>10293.6</v>
       </c>
       <c r="L24" t="n">
-        <v>-6648.700000000059</v>
+        <v>-6064.100000000035</v>
       </c>
       <c r="M24" t="n">
-        <v>1922</v>
+        <v>1816</v>
       </c>
       <c r="N24" t="n">
-        <v>15497.7</v>
+        <v>16357.70000000003</v>
       </c>
       <c r="O24" t="n">
         <v>-1161.099999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>3281.599999999999</v>
+        <v>3522.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.063319458896984</v>
+        <v>9.007544052863455</v>
       </c>
       <c r="R24" t="n">
-        <v>248.8870603832872</v>
+        <v>254.5503363524396</v>
       </c>
       <c r="S24" t="n">
-        <v>-33.5</v>
+        <v>-35</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2528616024973985</v>
+        <v>0.2505506607929515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2072,54 +2072,54 @@
         <v>2024</v>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J25" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>8505.699999999959</v>
+        <v>10266.49999999997</v>
       </c>
       <c r="L25" t="n">
-        <v>-3389.000000000004</v>
+        <v>-5965.200000000052</v>
       </c>
       <c r="M25" t="n">
-        <v>2780</v>
+        <v>2027</v>
       </c>
       <c r="N25" t="n">
-        <v>11894.69999999996</v>
+        <v>16231.70000000002</v>
       </c>
       <c r="O25" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>2185.099999999999</v>
+        <v>3487.099999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.278669064748188</v>
+        <v>8.007745436605832</v>
       </c>
       <c r="R25" t="n">
-        <v>201.9982922189682</v>
+        <v>241.7338686454982</v>
       </c>
       <c r="S25" t="n">
-        <v>-34.04999999999927</v>
+        <v>-33.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2690647482014388</v>
+        <v>0.2560434139121855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2141,25 +2141,25 @@
         <v>95</v>
       </c>
       <c r="H26" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I26" t="n">
         <v>65</v>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>7489.399999999936</v>
+        <v>9262.099999999944</v>
       </c>
       <c r="L26" t="n">
-        <v>-5809.000000000051</v>
+        <v>-5682.500000000047</v>
       </c>
       <c r="M26" t="n">
         <v>1645</v>
       </c>
       <c r="N26" t="n">
-        <v>13298.39999999999</v>
+        <v>14944.59999999999</v>
       </c>
       <c r="O26" t="n">
         <v>-1161.099999999999</v>
@@ -2168,90 +2168,90 @@
         <v>4560.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.084133738601816</v>
+        <v>9.084863221884493</v>
       </c>
       <c r="R26" t="n">
-        <v>272.9381017104117</v>
+        <v>273.5621588518418</v>
       </c>
       <c r="S26" t="n">
-        <v>-36.20000000000073</v>
+        <v>-36.09999999999854</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2370820668693009</v>
+        <v>0.2376899696048632</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
+        <v>53</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="n">
         <v>45</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>HK50</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I27" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>7468.299999999992</v>
+        <v>8848.999999999945</v>
       </c>
       <c r="L27" t="n">
-        <v>-4601.500000000007</v>
+        <v>-6648.700000000059</v>
       </c>
       <c r="M27" t="n">
-        <v>1644</v>
+        <v>1922</v>
       </c>
       <c r="N27" t="n">
-        <v>12069.8</v>
+        <v>15497.7</v>
       </c>
       <c r="O27" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>3861.199999999997</v>
+        <v>3281.599999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.341727493917275</v>
+        <v>8.063319458896984</v>
       </c>
       <c r="R27" t="n">
-        <v>263.6291614740249</v>
+        <v>248.8870603832872</v>
       </c>
       <c r="S27" t="n">
-        <v>-39.05000000000109</v>
+        <v>-33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2098540145985401</v>
+        <v>0.2528616024973985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2270,54 +2270,54 @@
         <v>2024</v>
       </c>
       <c r="G28" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K28" t="n">
-        <v>7394.899999999881</v>
+        <v>8505.699999999959</v>
       </c>
       <c r="L28" t="n">
-        <v>-1265.100000000031</v>
+        <v>-3389.000000000004</v>
       </c>
       <c r="M28" t="n">
-        <v>1435</v>
+        <v>2780</v>
       </c>
       <c r="N28" t="n">
-        <v>8659.999999999913</v>
+        <v>11894.69999999996</v>
       </c>
       <c r="O28" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>3437</v>
+        <v>2185.099999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.034843205574852</v>
+        <v>4.278669064748188</v>
       </c>
       <c r="R28" t="n">
-        <v>280.3968540010501</v>
+        <v>201.9982922189682</v>
       </c>
       <c r="S28" t="n">
-        <v>-43</v>
+        <v>-34.04999999999927</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2055749128919861</v>
+        <v>0.2690647482014388</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2336,54 +2336,54 @@
         <v>2024</v>
       </c>
       <c r="G29" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>5872.899999999934</v>
+        <v>7489.399999999936</v>
       </c>
       <c r="L29" t="n">
-        <v>-4043.799999999999</v>
+        <v>-5809.000000000051</v>
       </c>
       <c r="M29" t="n">
-        <v>2812</v>
+        <v>1645</v>
       </c>
       <c r="N29" t="n">
-        <v>9916.699999999933</v>
+        <v>13298.39999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>2185.099999999999</v>
+        <v>4560.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.52656472261733</v>
+        <v>8.084133738601816</v>
       </c>
       <c r="R29" t="n">
-        <v>200.5930663294843</v>
+        <v>272.9381017104117</v>
       </c>
       <c r="S29" t="n">
-        <v>-34</v>
+        <v>-36.20000000000073</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2652916073968706</v>
+        <v>0.2370820668693009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2402,54 +2402,54 @@
         <v>2024</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>1.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K30" t="n">
-        <v>5427.200000000012</v>
+        <v>7468.299999999992</v>
       </c>
       <c r="L30" t="n">
-        <v>-7198.200000000037</v>
+        <v>-4601.500000000007</v>
       </c>
       <c r="M30" t="n">
-        <v>2128</v>
+        <v>1644</v>
       </c>
       <c r="N30" t="n">
-        <v>12625.40000000005</v>
+        <v>12069.8</v>
       </c>
       <c r="O30" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>3281.599999999999</v>
+        <v>3861.199999999997</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.932988721804534</v>
+        <v>7.341727493917275</v>
       </c>
       <c r="R30" t="n">
-        <v>227.3874576049215</v>
+        <v>263.6291614740249</v>
       </c>
       <c r="S30" t="n">
-        <v>-31</v>
+        <v>-39.05000000000109</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2537593984962406</v>
+        <v>0.2098540145985401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2468,120 +2468,120 @@
         <v>2024</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
+        <v>75</v>
+      </c>
+      <c r="J31" t="n">
         <v>100</v>
       </c>
-      <c r="J31" t="n">
-        <v>400</v>
-      </c>
       <c r="K31" t="n">
-        <v>4822.000000000018</v>
+        <v>7394.899999999881</v>
       </c>
       <c r="L31" t="n">
-        <v>-5805.499999999989</v>
+        <v>-1265.100000000031</v>
       </c>
       <c r="M31" t="n">
-        <v>1266</v>
+        <v>1435</v>
       </c>
       <c r="N31" t="n">
-        <v>10627.50000000001</v>
+        <v>8659.999999999913</v>
       </c>
       <c r="O31" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>4163.600000000002</v>
+        <v>3437</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.394549763033181</v>
+        <v>6.034843205574852</v>
       </c>
       <c r="R31" t="n">
-        <v>300.9038627843474</v>
+        <v>280.3968540010501</v>
       </c>
       <c r="S31" t="n">
-        <v>-42.80000000000109</v>
+        <v>-43</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1879936808846761</v>
+        <v>0.2055749128919861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B32" t="n">
+        <v>92</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G32" t="n">
         <v>35</v>
       </c>
-      <c r="B32" t="n">
-        <v>41</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>HK50</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>4523.599999999977</v>
+        <v>7023.699999999853</v>
       </c>
       <c r="L32" t="n">
-        <v>-2726.000000000044</v>
+        <v>-3035.10000000002</v>
       </c>
       <c r="M32" t="n">
-        <v>4255</v>
+        <v>1542</v>
       </c>
       <c r="N32" t="n">
-        <v>7249.60000000002</v>
+        <v>10058.79999999987</v>
       </c>
       <c r="O32" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P32" t="n">
-        <v>1720</v>
+        <v>3459.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.703783783783789</v>
+        <v>6.523216601815742</v>
       </c>
       <c r="R32" t="n">
-        <v>166.2440834384187</v>
+        <v>274.7998731406367</v>
       </c>
       <c r="S32" t="n">
-        <v>-24.79999999999927</v>
+        <v>-38.55000000000109</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2871915393654524</v>
+        <v>0.2023346303501946</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2603,51 +2603,51 @@
         <v>35</v>
       </c>
       <c r="H33" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K33" t="n">
-        <v>3937.099999999948</v>
+        <v>5872.899999999934</v>
       </c>
       <c r="L33" t="n">
-        <v>-7931.600000000053</v>
+        <v>-4043.799999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>1704</v>
+        <v>2812</v>
       </c>
       <c r="N33" t="n">
-        <v>11868.7</v>
+        <v>9916.699999999933</v>
       </c>
       <c r="O33" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>3535.5</v>
+        <v>2185.099999999999</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.965199530516433</v>
+        <v>3.52656472261733</v>
       </c>
       <c r="R33" t="n">
-        <v>256.6434857828967</v>
+        <v>200.5930663294843</v>
       </c>
       <c r="S33" t="n">
-        <v>-35.5</v>
+        <v>-34</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2394366197183098</v>
+        <v>0.2652916073968706</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2666,54 +2666,54 @@
         <v>2024</v>
       </c>
       <c r="G34" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I34" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="J34" t="n">
         <v>250</v>
       </c>
       <c r="K34" t="n">
-        <v>3340.099999999919</v>
+        <v>5427.200000000012</v>
       </c>
       <c r="L34" t="n">
-        <v>-6863.900000000045</v>
+        <v>-7198.200000000037</v>
       </c>
       <c r="M34" t="n">
-        <v>1500</v>
+        <v>2128</v>
       </c>
       <c r="N34" t="n">
-        <v>10203.99999999996</v>
+        <v>12625.40000000005</v>
       </c>
       <c r="O34" t="n">
         <v>-1161.099999999999</v>
       </c>
       <c r="P34" t="n">
-        <v>4193.5</v>
+        <v>3281.599999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.802666666666642</v>
+        <v>5.932988721804534</v>
       </c>
       <c r="R34" t="n">
-        <v>280.797044629905</v>
+        <v>227.3874576049215</v>
       </c>
       <c r="S34" t="n">
-        <v>-37.5</v>
+        <v>-31</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2313333333333333</v>
+        <v>0.2537593984962406</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2735,51 +2735,51 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>3255.399999999907</v>
+        <v>4822.000000000018</v>
       </c>
       <c r="L35" t="n">
-        <v>-4734.700000000081</v>
+        <v>-5805.499999999989</v>
       </c>
       <c r="M35" t="n">
-        <v>4095</v>
+        <v>1266</v>
       </c>
       <c r="N35" t="n">
-        <v>7990.099999999988</v>
+        <v>10627.50000000001</v>
       </c>
       <c r="O35" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P35" t="n">
-        <v>1699.799999999999</v>
+        <v>4163.600000000002</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.951184371184368</v>
+        <v>8.394549763033181</v>
       </c>
       <c r="R35" t="n">
-        <v>169.886095728274</v>
+        <v>300.9038627843474</v>
       </c>
       <c r="S35" t="n">
-        <v>-29.19999999999709</v>
+        <v>-42.80000000000109</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2945054945054945</v>
+        <v>0.1879936808846761</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2798,54 +2798,54 @@
         <v>2024</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I36" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>-78.30000000009386</v>
+        <v>4523.599999999977</v>
       </c>
       <c r="L36" t="n">
-        <v>-3678.000000000022</v>
+        <v>-2726.000000000044</v>
       </c>
       <c r="M36" t="n">
-        <v>1426</v>
+        <v>4255</v>
       </c>
       <c r="N36" t="n">
-        <v>3599.699999999928</v>
+        <v>7249.60000000002</v>
       </c>
       <c r="O36" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P36" t="n">
-        <v>3453</v>
+        <v>1720</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.524333800841464</v>
+        <v>1.703783783783789</v>
       </c>
       <c r="R36" t="n">
-        <v>273.8653763288912</v>
+        <v>166.2440834384187</v>
       </c>
       <c r="S36" t="n">
-        <v>-39.54999999999927</v>
+        <v>-24.79999999999927</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1977559607293128</v>
+        <v>0.2871915393654524</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2864,54 +2864,54 @@
         <v>2024</v>
       </c>
       <c r="G37" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J37" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>-80.40000000007421</v>
+        <v>4020.00000000004</v>
       </c>
       <c r="L37" t="n">
-        <v>-8945.800000000014</v>
+        <v>-6004.10000000002</v>
       </c>
       <c r="M37" t="n">
-        <v>2538</v>
+        <v>1455</v>
       </c>
       <c r="N37" t="n">
-        <v>8865.39999999994</v>
+        <v>10024.10000000006</v>
       </c>
       <c r="O37" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>2182.099999999999</v>
+        <v>3935.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.493065405831339</v>
+        <v>6.889415807560179</v>
       </c>
       <c r="R37" t="n">
-        <v>207.5662184521699</v>
+        <v>275.3995019760605</v>
       </c>
       <c r="S37" t="n">
         <v>-34.5</v>
       </c>
       <c r="T37" t="n">
-        <v>0.252167060677699</v>
+        <v>0.2371134020618557</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2930,54 +2930,54 @@
         <v>2024</v>
       </c>
       <c r="G38" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H38" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I38" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J38" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K38" t="n">
-        <v>-882.3000000001375</v>
+        <v>3937.099999999948</v>
       </c>
       <c r="L38" t="n">
-        <v>-10987.20000000006</v>
+        <v>-7931.600000000053</v>
       </c>
       <c r="M38" t="n">
-        <v>2310</v>
+        <v>1704</v>
       </c>
       <c r="N38" t="n">
-        <v>10104.89999999993</v>
+        <v>11868.7</v>
       </c>
       <c r="O38" t="n">
         <v>-1161.099999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>2153</v>
+        <v>3535.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.374415584415552</v>
+        <v>6.965199530516433</v>
       </c>
       <c r="R38" t="n">
-        <v>210.0291587445106</v>
+        <v>256.6434857828967</v>
       </c>
       <c r="S38" t="n">
-        <v>-31.79999999999927</v>
+        <v>-35.5</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2394366197183098</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2996,54 +2996,54 @@
         <v>2024</v>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I39" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>-1222.299999999912</v>
+        <v>3499.599999999946</v>
       </c>
       <c r="L39" t="n">
-        <v>-7177.899999999951</v>
+        <v>-6106.300000000047</v>
       </c>
       <c r="M39" t="n">
-        <v>1668</v>
+        <v>1368</v>
       </c>
       <c r="N39" t="n">
-        <v>5955.600000000039</v>
+        <v>9605.899999999992</v>
       </c>
       <c r="O39" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>3626.100000000002</v>
+        <v>4196.600000000002</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.570503597122325</v>
+        <v>7.021856725146193</v>
       </c>
       <c r="R39" t="n">
-        <v>266.5915162117004</v>
+        <v>290.5620593499555</v>
       </c>
       <c r="S39" t="n">
-        <v>-42.25</v>
+        <v>-39</v>
       </c>
       <c r="T39" t="n">
-        <v>0.210431654676259</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3062,54 +3062,54 @@
         <v>2024</v>
       </c>
       <c r="G40" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J40" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K40" t="n">
-        <v>-1515.80000000005</v>
+        <v>3340.099999999919</v>
       </c>
       <c r="L40" t="n">
-        <v>-5056.600000000009</v>
+        <v>-6863.900000000045</v>
       </c>
       <c r="M40" t="n">
-        <v>1966</v>
+        <v>1500</v>
       </c>
       <c r="N40" t="n">
-        <v>3540.799999999959</v>
+        <v>10203.99999999996</v>
       </c>
       <c r="O40" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>2018.5</v>
+        <v>4193.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.801017293997945</v>
+        <v>6.802666666666642</v>
       </c>
       <c r="R40" t="n">
-        <v>234.2964228773581</v>
+        <v>280.797044629905</v>
       </c>
       <c r="S40" t="n">
-        <v>-38.04999999999927</v>
+        <v>-37.5</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2192268565615463</v>
+        <v>0.2313333333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3128,54 +3128,54 @@
         <v>2024</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K41" t="n">
-        <v>-1904.50000000012</v>
+        <v>3255.399999999907</v>
       </c>
       <c r="L41" t="n">
-        <v>-8052.400000000085</v>
+        <v>-4734.700000000081</v>
       </c>
       <c r="M41" t="n">
-        <v>3436</v>
+        <v>4095</v>
       </c>
       <c r="N41" t="n">
-        <v>6147.899999999965</v>
+        <v>7990.099999999988</v>
       </c>
       <c r="O41" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>2062.799999999999</v>
+        <v>1699.799999999999</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.789260768335263</v>
+        <v>1.951184371184368</v>
       </c>
       <c r="R41" t="n">
-        <v>181.1818678927905</v>
+        <v>169.886095728274</v>
       </c>
       <c r="S41" t="n">
-        <v>-29.5</v>
+        <v>-29.19999999999709</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2971478463329453</v>
+        <v>0.2945054945054945</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3194,55 +3194,55 @@
         <v>2024</v>
       </c>
       <c r="G42" t="n">
+        <v>50</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>85</v>
+      </c>
+      <c r="J42" t="n">
         <v>100</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>250</v>
-      </c>
       <c r="K42" t="n">
-        <v>-2041.100000000119</v>
+        <v>-78.30000000009386</v>
       </c>
       <c r="L42" t="n">
-        <v>-7756.900000000092</v>
+        <v>-3678.000000000022</v>
       </c>
       <c r="M42" t="n">
-        <v>3460</v>
+        <v>1426</v>
       </c>
       <c r="N42" t="n">
-        <v>5715.799999999974</v>
+        <v>3599.699999999928</v>
       </c>
       <c r="O42" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>2062.799999999999</v>
+        <v>3453</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.651965317919068</v>
+        <v>2.524333800841464</v>
       </c>
       <c r="R42" t="n">
-        <v>180.1841761965485</v>
+        <v>273.8653763288912</v>
       </c>
       <c r="S42" t="n">
-        <v>-29</v>
+        <v>-39.54999999999927</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2950867052023121</v>
+        <v>0.1977559607293128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" t="n">
         <v>44</v>
       </c>
-      <c r="B43" t="n">
-        <v>52</v>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>HK50</t>
@@ -3260,54 +3260,54 @@
         <v>2024</v>
       </c>
       <c r="G43" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J43" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" t="n">
-        <v>-2447.800000000005</v>
+        <v>-80.40000000007421</v>
       </c>
       <c r="L43" t="n">
-        <v>-8795.299999999992</v>
+        <v>-8945.800000000014</v>
       </c>
       <c r="M43" t="n">
-        <v>1512</v>
+        <v>2538</v>
       </c>
       <c r="N43" t="n">
-        <v>6347.499999999987</v>
+        <v>8865.39999999994</v>
       </c>
       <c r="O43" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P43" t="n">
-        <v>3528.799999999999</v>
+        <v>2182.099999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.198082010582002</v>
+        <v>3.493065405831339</v>
       </c>
       <c r="R43" t="n">
-        <v>275.5759718952359</v>
+        <v>207.5662184521699</v>
       </c>
       <c r="S43" t="n">
-        <v>-43.64999999999964</v>
+        <v>-34.5</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.252167060677699</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3326,54 +3326,54 @@
         <v>2024</v>
       </c>
       <c r="G44" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H44" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="I44" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K44" t="n">
-        <v>-3139.800000000067</v>
+        <v>-882.3000000001375</v>
       </c>
       <c r="L44" t="n">
-        <v>-7128.399999999998</v>
+        <v>-10987.20000000006</v>
       </c>
       <c r="M44" t="n">
-        <v>1748</v>
+        <v>2310</v>
       </c>
       <c r="N44" t="n">
-        <v>3988.599999999931</v>
+        <v>10104.89999999993</v>
       </c>
       <c r="O44" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>3453</v>
+        <v>2153</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.281807780320327</v>
+        <v>4.374415584415552</v>
       </c>
       <c r="R44" t="n">
-        <v>248.2996731565269</v>
+        <v>210.0291587445106</v>
       </c>
       <c r="S44" t="n">
-        <v>-41</v>
+        <v>-31.79999999999927</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2185354691075515</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3395,51 +3395,51 @@
         <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J45" t="n">
         <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>-5401.399999999943</v>
+        <v>-1222.299999999912</v>
       </c>
       <c r="L45" t="n">
-        <v>-7481.199999999986</v>
+        <v>-7177.899999999951</v>
       </c>
       <c r="M45" t="n">
-        <v>1998</v>
+        <v>1668</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.800000000043</v>
+        <v>5955.600000000039</v>
       </c>
       <c r="O45" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>2459</v>
+        <v>3626.100000000002</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.040940940940962</v>
+        <v>3.570503597122325</v>
       </c>
       <c r="R45" t="n">
-        <v>230.4341442372329</v>
+        <v>266.5915162117004</v>
       </c>
       <c r="S45" t="n">
-        <v>-40.69999999999891</v>
+        <v>-42.25</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2362362362362362</v>
+        <v>0.210431654676259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3458,54 +3458,54 @@
         <v>2024</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K46" t="n">
-        <v>-5513.600000000079</v>
+        <v>-1515.80000000005</v>
       </c>
       <c r="L46" t="n">
-        <v>-8494.600000000049</v>
+        <v>-5056.600000000009</v>
       </c>
       <c r="M46" t="n">
-        <v>1496</v>
+        <v>1966</v>
       </c>
       <c r="N46" t="n">
-        <v>2980.999999999971</v>
+        <v>3540.799999999959</v>
       </c>
       <c r="O46" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>3535.5</v>
+        <v>2018.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.99264705882351</v>
+        <v>1.801017293997945</v>
       </c>
       <c r="R46" t="n">
-        <v>257.5773299324537</v>
+        <v>234.2964228773581</v>
       </c>
       <c r="S46" t="n">
-        <v>-37.45000000000073</v>
+        <v>-38.04999999999927</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2306149732620321</v>
+        <v>0.2192268565615463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B47" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3524,120 +3524,120 @@
         <v>2024</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H47" t="n">
         <v>1.6</v>
       </c>
       <c r="I47" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K47" t="n">
-        <v>-8484.800000000014</v>
+        <v>-1904.50000000012</v>
       </c>
       <c r="L47" t="n">
-        <v>-8794.500000000044</v>
+        <v>-8052.400000000085</v>
       </c>
       <c r="M47" t="n">
-        <v>1491</v>
+        <v>3436</v>
       </c>
       <c r="N47" t="n">
-        <v>309.7000000000298</v>
+        <v>6147.899999999965</v>
       </c>
       <c r="O47" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>3535.5</v>
+        <v>2062.799999999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2077129443326826</v>
+        <v>1.789260768335263</v>
       </c>
       <c r="R47" t="n">
-        <v>256.4867990417771</v>
+        <v>181.1818678927905</v>
       </c>
       <c r="S47" t="n">
-        <v>-38</v>
+        <v>-29.5</v>
       </c>
       <c r="T47" t="n">
-        <v>0.2266934942991281</v>
+        <v>0.2971478463329453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B48" t="n">
+        <v>35</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I48" t="n">
         <v>20</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>HK50</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G48" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>100</v>
-      </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K48" t="n">
-        <v>-15139.80000000012</v>
+        <v>-2041.100000000119</v>
       </c>
       <c r="L48" t="n">
-        <v>-9678.800000000047</v>
+        <v>-7756.900000000092</v>
       </c>
       <c r="M48" t="n">
-        <v>1314</v>
+        <v>3460</v>
       </c>
       <c r="N48" t="n">
-        <v>-5461.000000000075</v>
+        <v>5715.799999999974</v>
       </c>
       <c r="O48" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>4175.600000000002</v>
+        <v>2062.799999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>-4.156012176560179</v>
+        <v>1.651965317919068</v>
       </c>
       <c r="R48" t="n">
-        <v>293.7251814283239</v>
+        <v>180.1841761965485</v>
       </c>
       <c r="S48" t="n">
-        <v>-49.80000000000109</v>
+        <v>-29</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2950867052023121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3656,54 +3656,54 @@
         <v>2024</v>
       </c>
       <c r="G49" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J49" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K49" t="n">
-        <v>-15960.99999999987</v>
+        <v>-2302.999999999913</v>
       </c>
       <c r="L49" t="n">
-        <v>-10496.99999999997</v>
+        <v>-8366</v>
       </c>
       <c r="M49" t="n">
-        <v>1828</v>
+        <v>2186</v>
       </c>
       <c r="N49" t="n">
-        <v>-5463.999999999907</v>
+        <v>6063.000000000087</v>
       </c>
       <c r="O49" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>2527.299999999999</v>
+        <v>2012.799999999999</v>
       </c>
       <c r="Q49" t="n">
-        <v>-2.98905908096275</v>
+        <v>2.77355901189391</v>
       </c>
       <c r="R49" t="n">
-        <v>242.036288828877</v>
+        <v>218.0510243044818</v>
       </c>
       <c r="S49" t="n">
-        <v>-43.64999999999964</v>
+        <v>-37.05000000000109</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2029540481400438</v>
+        <v>0.2387923147301007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3722,54 +3722,54 @@
         <v>2024</v>
       </c>
       <c r="G50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H50" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J50" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
-        <v>-20761.10000000006</v>
+        <v>-2447.800000000005</v>
       </c>
       <c r="L50" t="n">
-        <v>-14768.00000000007</v>
+        <v>-8795.299999999992</v>
       </c>
       <c r="M50" t="n">
-        <v>2925</v>
+        <v>1512</v>
       </c>
       <c r="N50" t="n">
-        <v>-5993.099999999995</v>
+        <v>6347.499999999987</v>
       </c>
       <c r="O50" t="n">
-        <v>-1123.599999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>2075.099999999999</v>
+        <v>3528.799999999999</v>
       </c>
       <c r="Q50" t="n">
-        <v>-2.048923076923075</v>
+        <v>4.198082010582002</v>
       </c>
       <c r="R50" t="n">
-        <v>188.3071523523346</v>
+        <v>275.5759718952359</v>
       </c>
       <c r="S50" t="n">
-        <v>-32.5</v>
+        <v>-43.64999999999964</v>
       </c>
       <c r="T50" t="n">
-        <v>0.282051282051282</v>
+        <v>0.1964285714285714</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3788,54 +3788,54 @@
         <v>2024</v>
       </c>
       <c r="G51" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H51" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="I51" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="J51" t="n">
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>-21004.09999999997</v>
+        <v>-3139.800000000067</v>
       </c>
       <c r="L51" t="n">
-        <v>-13022.19999999999</v>
+        <v>-7128.399999999998</v>
       </c>
       <c r="M51" t="n">
-        <v>1397</v>
+        <v>1748</v>
       </c>
       <c r="N51" t="n">
-        <v>-7981.899999999976</v>
+        <v>3988.599999999931</v>
       </c>
       <c r="O51" t="n">
-        <v>-1161.099999999999</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>3535.5</v>
+        <v>3453</v>
       </c>
       <c r="Q51" t="n">
-        <v>-5.713600572655674</v>
+        <v>2.281807780320327</v>
       </c>
       <c r="R51" t="n">
-        <v>251.9055742828102</v>
+        <v>248.2996731565269</v>
       </c>
       <c r="S51" t="n">
-        <v>-40.90000000000146</v>
+        <v>-41</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2204724409448819</v>
+        <v>0.2185354691075515</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3854,54 +3854,54 @@
         <v>2024</v>
       </c>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H52" t="n">
-        <v>3.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K52" t="n">
-        <v>-22456.70000000016</v>
+        <v>-5401.399999999943</v>
       </c>
       <c r="L52" t="n">
-        <v>-12728.20000000008</v>
+        <v>-7481.199999999986</v>
       </c>
       <c r="M52" t="n">
-        <v>1380</v>
+        <v>1998</v>
       </c>
       <c r="N52" t="n">
-        <v>-9728.500000000075</v>
+        <v>2079.800000000043</v>
       </c>
       <c r="O52" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>3528.799999999999</v>
+        <v>2459</v>
       </c>
       <c r="Q52" t="n">
-        <v>-7.049637681159474</v>
+        <v>1.040940940940962</v>
       </c>
       <c r="R52" t="n">
-        <v>270.6274987230346</v>
+        <v>230.4341442372329</v>
       </c>
       <c r="S52" t="n">
-        <v>-49.39999999999964</v>
+        <v>-40.69999999999891</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2362362362362362</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>2024</v>
       </c>
       <c r="G53" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>80</v>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K53" t="n">
-        <v>-23216.6000000001</v>
+        <v>-5513.600000000079</v>
       </c>
       <c r="L53" t="n">
-        <v>-12124.00000000005</v>
+        <v>-8494.600000000049</v>
       </c>
       <c r="M53" t="n">
-        <v>1397</v>
+        <v>1496</v>
       </c>
       <c r="N53" t="n">
-        <v>-11092.60000000005</v>
+        <v>2980.999999999971</v>
       </c>
       <c r="O53" t="n">
-        <v>-599.5</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>3437</v>
+        <v>3535.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>-7.940300644237689</v>
+        <v>1.99264705882351</v>
       </c>
       <c r="R53" t="n">
-        <v>255.8354720845353</v>
+        <v>257.5773299324537</v>
       </c>
       <c r="S53" t="n">
-        <v>-59.79999999999927</v>
+        <v>-37.45000000000073</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1624910522548318</v>
+        <v>0.2306149732620321</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B54" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3986,54 +3986,54 @@
         <v>2024</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H54" t="n">
-        <v>3.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I54" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J54" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K54" t="n">
-        <v>-24679.29999999993</v>
+        <v>-8484.800000000014</v>
       </c>
       <c r="L54" t="n">
-        <v>-14235.59999999997</v>
+        <v>-8794.500000000044</v>
       </c>
       <c r="M54" t="n">
-        <v>1894</v>
+        <v>1491</v>
       </c>
       <c r="N54" t="n">
-        <v>-10443.69999999996</v>
+        <v>309.7000000000298</v>
       </c>
       <c r="O54" t="n">
-        <v>-1120.099999999999</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>2162.5</v>
+        <v>3535.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>-5.514097148891214</v>
+        <v>0.2077129443326826</v>
       </c>
       <c r="R54" t="n">
-        <v>233.3671997123571</v>
+        <v>256.4867990417771</v>
       </c>
       <c r="S54" t="n">
-        <v>-43</v>
+        <v>-38</v>
       </c>
       <c r="T54" t="n">
-        <v>0.2111932418162619</v>
+        <v>0.2266934942991281</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B55" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4052,54 +4052,54 @@
         <v>2024</v>
       </c>
       <c r="G55" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>3.600000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>-25406.60000000009</v>
+        <v>-15139.80000000012</v>
       </c>
       <c r="L55" t="n">
-        <v>-14472.90000000001</v>
+        <v>-9678.800000000047</v>
       </c>
       <c r="M55" t="n">
-        <v>2486</v>
+        <v>1314</v>
       </c>
       <c r="N55" t="n">
-        <v>-10933.70000000008</v>
+        <v>-5461.000000000075</v>
       </c>
       <c r="O55" t="n">
-        <v>-961.0999999999985</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>1876.799999999999</v>
+        <v>4175.600000000002</v>
       </c>
       <c r="Q55" t="n">
-        <v>-4.398109412711216</v>
+        <v>-4.156012176560179</v>
       </c>
       <c r="R55" t="n">
-        <v>211.499425016777</v>
+        <v>293.7251814283239</v>
       </c>
       <c r="S55" t="n">
-        <v>-38.29999999999927</v>
+        <v>-49.80000000000109</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2670957361222848</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B56" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4118,54 +4118,54 @@
         <v>2024</v>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J56" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K56" t="n">
-        <v>-26125.80000000001</v>
+        <v>-15960.99999999987</v>
       </c>
       <c r="L56" t="n">
-        <v>-15390.90000000001</v>
+        <v>-10496.99999999997</v>
       </c>
       <c r="M56" t="n">
-        <v>1906</v>
+        <v>1828</v>
       </c>
       <c r="N56" t="n">
-        <v>-10734.9</v>
+        <v>-5463.999999999907</v>
       </c>
       <c r="O56" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>2018.5</v>
+        <v>2527.299999999999</v>
       </c>
       <c r="Q56" t="n">
-        <v>-5.632161594963276</v>
+        <v>-2.98905908096275</v>
       </c>
       <c r="R56" t="n">
-        <v>234.9207410250168</v>
+        <v>242.036288828877</v>
       </c>
       <c r="S56" t="n">
-        <v>-41</v>
+        <v>-43.64999999999964</v>
       </c>
       <c r="T56" t="n">
-        <v>0.2119622245540399</v>
+        <v>0.2029540481400438</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B57" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4184,54 +4184,54 @@
         <v>2024</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J57" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K57" t="n">
-        <v>-26869.10000000033</v>
+        <v>-20761.10000000006</v>
       </c>
       <c r="L57" t="n">
-        <v>-15266.0000000001</v>
+        <v>-14768.00000000007</v>
       </c>
       <c r="M57" t="n">
-        <v>2616</v>
+        <v>2925</v>
       </c>
       <c r="N57" t="n">
-        <v>-11603.10000000023</v>
+        <v>-5993.099999999995</v>
       </c>
       <c r="O57" t="n">
-        <v>-961.0999999999985</v>
+        <v>-1123.599999999999</v>
       </c>
       <c r="P57" t="n">
-        <v>1872.799999999999</v>
+        <v>2075.099999999999</v>
       </c>
       <c r="Q57" t="n">
-        <v>-4.4354357798166</v>
+        <v>-2.048923076923075</v>
       </c>
       <c r="R57" t="n">
-        <v>209.7871307024642</v>
+        <v>188.3071523523346</v>
       </c>
       <c r="S57" t="n">
-        <v>-38.95000000000073</v>
+        <v>-32.5</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2844036697247707</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4250,54 +4250,54 @@
         <v>2024</v>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H58" t="n">
-        <v>3.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="J58" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>-32997.5</v>
+        <v>-21004.09999999997</v>
       </c>
       <c r="L58" t="n">
-        <v>-17390.3</v>
+        <v>-13022.19999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>2495</v>
+        <v>1397</v>
       </c>
       <c r="N58" t="n">
-        <v>-15607.2</v>
+        <v>-7981.899999999976</v>
       </c>
       <c r="O58" t="n">
-        <v>-980.5999999999985</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P58" t="n">
-        <v>2291.299999999999</v>
+        <v>3535.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>-6.255390781563126</v>
+        <v>-5.713600572655674</v>
       </c>
       <c r="R58" t="n">
-        <v>214.6202483270895</v>
+        <v>251.9055742828102</v>
       </c>
       <c r="S58" t="n">
-        <v>-39.09999999999854</v>
+        <v>-40.90000000000146</v>
       </c>
       <c r="T58" t="n">
-        <v>0.2981963927855711</v>
+        <v>0.2204724409448819</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4316,54 +4316,54 @@
         <v>2024</v>
       </c>
       <c r="G59" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>-36332.70000000003</v>
+        <v>-22456.70000000016</v>
       </c>
       <c r="L59" t="n">
-        <v>-20906.40000000001</v>
+        <v>-12728.20000000008</v>
       </c>
       <c r="M59" t="n">
-        <v>2248</v>
+        <v>1380</v>
       </c>
       <c r="N59" t="n">
-        <v>-15426.30000000001</v>
+        <v>-9728.500000000075</v>
       </c>
       <c r="O59" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P59" t="n">
-        <v>2075.099999999999</v>
+        <v>3528.799999999999</v>
       </c>
       <c r="Q59" t="n">
-        <v>-6.862233096085415</v>
+        <v>-7.049637681159474</v>
       </c>
       <c r="R59" t="n">
-        <v>216.7586280833407</v>
+        <v>270.6274987230346</v>
       </c>
       <c r="S59" t="n">
-        <v>-40</v>
+        <v>-49.39999999999964</v>
       </c>
       <c r="T59" t="n">
-        <v>0.2442170818505338</v>
+        <v>0.1811594202898551</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4382,54 +4382,54 @@
         <v>2024</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H60" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="I60" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J60" t="n">
         <v>50</v>
       </c>
       <c r="K60" t="n">
-        <v>-43660.60000000001</v>
+        <v>-23216.6000000001</v>
       </c>
       <c r="L60" t="n">
-        <v>-22993.70000000001</v>
+        <v>-12124.00000000005</v>
       </c>
       <c r="M60" t="n">
-        <v>1584</v>
+        <v>1397</v>
       </c>
       <c r="N60" t="n">
-        <v>-20666.89999999999</v>
+        <v>-11092.60000000005</v>
       </c>
       <c r="O60" t="n">
-        <v>-1161.099999999999</v>
+        <v>-599.5</v>
       </c>
       <c r="P60" t="n">
-        <v>3535.5</v>
+        <v>3437</v>
       </c>
       <c r="Q60" t="n">
-        <v>-13.04728535353535</v>
+        <v>-7.940300644237689</v>
       </c>
       <c r="R60" t="n">
-        <v>219.9964248853323</v>
+        <v>255.8354720845353</v>
       </c>
       <c r="S60" t="n">
-        <v>-54</v>
+        <v>-59.79999999999927</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1976010101010101</v>
+        <v>0.1624910522548318</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4448,54 +4448,54 @@
         <v>2024</v>
       </c>
       <c r="G61" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J61" t="n">
         <v>200</v>
       </c>
       <c r="K61" t="n">
-        <v>-47369.20000000006</v>
+        <v>-24679.29999999993</v>
       </c>
       <c r="L61" t="n">
-        <v>-23888.20000000005</v>
+        <v>-14235.59999999997</v>
       </c>
       <c r="M61" t="n">
-        <v>2444</v>
+        <v>1894</v>
       </c>
       <c r="N61" t="n">
-        <v>-23481.00000000001</v>
+        <v>-10443.69999999996</v>
       </c>
       <c r="O61" t="n">
         <v>-1120.099999999999</v>
       </c>
       <c r="P61" t="n">
-        <v>2079.899999999998</v>
+        <v>2162.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>-9.607610474631757</v>
+        <v>-5.514097148891214</v>
       </c>
       <c r="R61" t="n">
-        <v>209.2286451827137</v>
+        <v>233.3671997123571</v>
       </c>
       <c r="S61" t="n">
-        <v>-40.5</v>
+        <v>-43</v>
       </c>
       <c r="T61" t="n">
-        <v>0.2520458265139116</v>
+        <v>0.2111932418162619</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4514,54 +4514,54 @@
         <v>2024</v>
       </c>
       <c r="G62" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H62" t="n">
         <v>3.600000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
-        <v>-54001.90000000002</v>
+        <v>-25406.60000000009</v>
       </c>
       <c r="L62" t="n">
-        <v>-27406.50000000001</v>
+        <v>-14472.90000000001</v>
       </c>
       <c r="M62" t="n">
-        <v>1330</v>
+        <v>2486</v>
       </c>
       <c r="N62" t="n">
-        <v>-26595.40000000002</v>
+        <v>-10933.70000000008</v>
       </c>
       <c r="O62" t="n">
-        <v>-866.5999999999985</v>
+        <v>-961.0999999999985</v>
       </c>
       <c r="P62" t="n">
-        <v>4163.600000000002</v>
+        <v>1876.799999999999</v>
       </c>
       <c r="Q62" t="n">
-        <v>-19.99654135338347</v>
+        <v>-4.398109412711216</v>
       </c>
       <c r="R62" t="n">
-        <v>236.9263845000136</v>
+        <v>211.499425016777</v>
       </c>
       <c r="S62" t="n">
-        <v>-59</v>
+        <v>-38.29999999999927</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.2670957361222848</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B63" t="n">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4580,54 +4580,54 @@
         <v>2024</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J63" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K63" t="n">
-        <v>-59204.79999999997</v>
+        <v>-25728.89999999991</v>
       </c>
       <c r="L63" t="n">
-        <v>-30946.80000000002</v>
+        <v>-16026.29999999998</v>
       </c>
       <c r="M63" t="n">
-        <v>1983</v>
+        <v>2114</v>
       </c>
       <c r="N63" t="n">
-        <v>-28257.99999999996</v>
+        <v>-9702.599999999928</v>
       </c>
       <c r="O63" t="n">
-        <v>-931.5999999999985</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>1894.299999999999</v>
+        <v>2391</v>
       </c>
       <c r="Q63" t="n">
-        <v>-14.25012607160865</v>
+        <v>-4.589687795648026</v>
       </c>
       <c r="R63" t="n">
-        <v>227.3327474923816</v>
+        <v>225.662811829838</v>
       </c>
       <c r="S63" t="n">
-        <v>-36.10000000000218</v>
+        <v>-39.85000000000036</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3600605143721634</v>
+        <v>0.2190160832544938</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B64" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4646,54 +4646,54 @@
         <v>2024</v>
       </c>
       <c r="G64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K64" t="n">
-        <v>-79694.80000000018</v>
+        <v>-26125.80000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>-40345.30000000009</v>
+        <v>-15390.90000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>2009</v>
+        <v>1906</v>
       </c>
       <c r="N64" t="n">
-        <v>-39349.50000000009</v>
+        <v>-10734.9</v>
       </c>
       <c r="O64" t="n">
-        <v>-671.0999999999985</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>1872.799999999999</v>
+        <v>2018.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>-19.58661025385769</v>
+        <v>-5.632161594963276</v>
       </c>
       <c r="R64" t="n">
-        <v>194.9027146504287</v>
+        <v>234.9207410250168</v>
       </c>
       <c r="S64" t="n">
-        <v>-57.59999999999854</v>
+        <v>-41</v>
       </c>
       <c r="T64" t="n">
-        <v>0.1597809855649577</v>
+        <v>0.2119622245540399</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B65" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4712,54 +4712,54 @@
         <v>2024</v>
       </c>
       <c r="G65" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H65" t="n">
         <v>3.600000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K65" t="n">
-        <v>-94852.40000000021</v>
+        <v>-26869.10000000033</v>
       </c>
       <c r="L65" t="n">
-        <v>-47426.20000000011</v>
+        <v>-15266.0000000001</v>
       </c>
       <c r="M65" t="n">
-        <v>2400</v>
+        <v>2616</v>
       </c>
       <c r="N65" t="n">
-        <v>-47426.20000000011</v>
+        <v>-11603.10000000023</v>
       </c>
       <c r="O65" t="n">
-        <v>-1120.099999999999</v>
+        <v>-961.0999999999985</v>
       </c>
       <c r="P65" t="n">
-        <v>2242.399999999998</v>
+        <v>1872.799999999999</v>
       </c>
       <c r="Q65" t="n">
-        <v>-19.76091666666671</v>
+        <v>-4.4354357798166</v>
       </c>
       <c r="R65" t="n">
-        <v>200.6425939678804</v>
+        <v>209.7871307024642</v>
       </c>
       <c r="S65" t="n">
-        <v>-43.75</v>
+        <v>-38.95000000000073</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2279166666666667</v>
+        <v>0.2844036697247707</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B66" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4778,54 +4778,54 @@
         <v>2024</v>
       </c>
       <c r="G66" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K66" t="n">
-        <v>-98494.00000000012</v>
+        <v>-32997.5</v>
       </c>
       <c r="L66" t="n">
-        <v>-49784.90000000007</v>
+        <v>-17390.3</v>
       </c>
       <c r="M66" t="n">
-        <v>1765</v>
+        <v>2495</v>
       </c>
       <c r="N66" t="n">
-        <v>-48709.10000000005</v>
+        <v>-15607.2</v>
       </c>
       <c r="O66" t="n">
-        <v>-931.5999999999985</v>
+        <v>-980.5999999999985</v>
       </c>
       <c r="P66" t="n">
-        <v>1894.299999999999</v>
+        <v>2291.299999999999</v>
       </c>
       <c r="Q66" t="n">
-        <v>-27.59722379603402</v>
+        <v>-6.255390781563126</v>
       </c>
       <c r="R66" t="n">
-        <v>201.1228139394193</v>
+        <v>214.6202483270895</v>
       </c>
       <c r="S66" t="n">
-        <v>-66.20000000000073</v>
+        <v>-39.09999999999854</v>
       </c>
       <c r="T66" t="n">
-        <v>0.2980169971671388</v>
+        <v>0.2981963927855711</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4844,54 +4844,54 @@
         <v>2024</v>
       </c>
       <c r="G67" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H67" t="n">
-        <v>2.600000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J67" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K67" t="n">
-        <v>-117431.2000000001</v>
+        <v>-36332.70000000003</v>
       </c>
       <c r="L67" t="n">
-        <v>-58715.60000000007</v>
+        <v>-20906.40000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>2746</v>
+        <v>2248</v>
       </c>
       <c r="N67" t="n">
-        <v>-58715.60000000007</v>
+        <v>-15426.30000000001</v>
       </c>
       <c r="O67" t="n">
-        <v>-726</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>2185.099999999999</v>
+        <v>2075.099999999999</v>
       </c>
       <c r="Q67" t="n">
-        <v>-21.38222869628553</v>
+        <v>-6.862233096085415</v>
       </c>
       <c r="R67" t="n">
-        <v>174.4446718088318</v>
+        <v>216.7586280833407</v>
       </c>
       <c r="S67" t="n">
-        <v>-56.20000000000073</v>
+        <v>-40</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1988346686088857</v>
+        <v>0.2442170818505338</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4910,54 +4910,54 @@
         <v>2024</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H68" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J68" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K68" t="n">
-        <v>-123275.0000000001</v>
+        <v>-40039.89999999994</v>
       </c>
       <c r="L68" t="n">
-        <v>-61637.50000000007</v>
+        <v>-23213.3</v>
       </c>
       <c r="M68" t="n">
-        <v>2366</v>
+        <v>2128</v>
       </c>
       <c r="N68" t="n">
-        <v>-61637.50000000007</v>
+        <v>-16826.59999999995</v>
       </c>
       <c r="O68" t="n">
-        <v>-661.8999999999978</v>
+        <v>-1120.099999999999</v>
       </c>
       <c r="P68" t="n">
-        <v>2347.599999999999</v>
+        <v>2060.799999999999</v>
       </c>
       <c r="Q68" t="n">
-        <v>-26.05135249366021</v>
+        <v>-7.907236842105238</v>
       </c>
       <c r="R68" t="n">
-        <v>178.6611017945747</v>
+        <v>221.7048503558556</v>
       </c>
       <c r="S68" t="n">
-        <v>-58.94999999999891</v>
+        <v>-41.5</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1661031276415892</v>
+        <v>0.2227443609022556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4976,54 +4976,54 @@
         <v>2024</v>
       </c>
       <c r="G69" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J69" t="n">
         <v>50</v>
       </c>
       <c r="K69" t="n">
-        <v>-127895.2999999998</v>
+        <v>-41514.99999999993</v>
       </c>
       <c r="L69" t="n">
-        <v>-63982.59999999987</v>
+        <v>-20984.99999999996</v>
       </c>
       <c r="M69" t="n">
-        <v>3386</v>
+        <v>1415</v>
       </c>
       <c r="N69" t="n">
-        <v>-63912.69999999987</v>
+        <v>-20529.99999999997</v>
       </c>
       <c r="O69" t="n">
-        <v>-956.5999999999985</v>
+        <v>-1161.099999999999</v>
       </c>
       <c r="P69" t="n">
-        <v>2395.299999999999</v>
+        <v>3535.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>-18.87557590076783</v>
+        <v>-14.50883392226147</v>
       </c>
       <c r="R69" t="n">
-        <v>163.8639998834545</v>
+        <v>224.8361361678963</v>
       </c>
       <c r="S69" t="n">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="T69" t="n">
-        <v>0.2359716479621973</v>
+        <v>0.1929328621908127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -5045,42 +5045,834 @@
         <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="J70" t="n">
         <v>50</v>
       </c>
       <c r="K70" t="n">
+        <v>-43660.60000000001</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-22993.70000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1584</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-20666.89999999999</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-1161.099999999999</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3535.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-13.04728535353535</v>
+      </c>
+      <c r="R70" t="n">
+        <v>219.9964248853323</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-54</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.1976010101010101</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B71" t="n">
+        <v>14</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>70</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>200</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-47369.20000000006</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-23888.20000000005</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2444</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-23481.00000000001</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-1120.099999999999</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2079.899999999998</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-9.607610474631757</v>
+      </c>
+      <c r="R71" t="n">
+        <v>209.2286451827137</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.2520458265139116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>35</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" t="n">
+        <v>50</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-54001.90000000002</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-27406.50000000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1330</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-26595.40000000002</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-866.5999999999985</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4163.600000000002</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-19.99654135338347</v>
+      </c>
+      <c r="R72" t="n">
+        <v>236.9263845000136</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-59</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1240601503759398</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>90</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>45</v>
+      </c>
+      <c r="J73" t="n">
+        <v>50</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-56230.70000000026</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-29157.10000000014</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1992</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-27073.60000000012</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-1161.099999999999</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2447.5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-13.5911646586346</v>
+      </c>
+      <c r="R73" t="n">
+        <v>207.696373986929</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-57</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.1897590361445783</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>200</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-59204.79999999997</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-30946.80000000002</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1983</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-28257.99999999996</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-931.5999999999985</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1894.299999999999</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-14.25012607160865</v>
+      </c>
+      <c r="R74" t="n">
+        <v>227.3327474923816</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-36.10000000000218</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.3600605143721634</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B75" t="n">
+        <v>70</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G75" t="n">
+        <v>55</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>45</v>
+      </c>
+      <c r="J75" t="n">
+        <v>50</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-79694.80000000018</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-40345.30000000009</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-39349.50000000009</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-671.0999999999985</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1872.799999999999</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-19.58661025385769</v>
+      </c>
+      <c r="R75" t="n">
+        <v>194.9027146504287</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-57.59999999999854</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1597809855649577</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B76" t="n">
+        <v>81</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>60</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>150</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-82340.69999999969</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-41208.59999999985</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2518</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-41132.09999999985</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-1120.099999999999</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2079.899999999998</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-16.33522637013496</v>
+      </c>
+      <c r="R76" t="n">
+        <v>203.3403283180706</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-39.59999999999854</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.2394757744241461</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B77" t="n">
+        <v>61</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G77" t="n">
+        <v>35</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>100</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-94852.40000000021</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-47426.20000000011</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-47426.20000000011</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-1120.099999999999</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2242.399999999998</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-19.76091666666671</v>
+      </c>
+      <c r="R77" t="n">
+        <v>200.6425939678804</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-43.75</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.2279166666666667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G78" t="n">
+        <v>90</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-98494.00000000012</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-49784.90000000007</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1765</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-48709.10000000005</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-931.5999999999985</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1894.299999999999</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-27.59722379603402</v>
+      </c>
+      <c r="R78" t="n">
+        <v>201.1228139394193</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-66.20000000000073</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.2980169971671388</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B79" t="n">
+        <v>40</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G79" t="n">
+        <v>50</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+      <c r="J79" t="n">
+        <v>50</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-117431.2000000001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-58715.60000000007</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2746</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-58715.60000000007</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-726</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2185.099999999999</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-21.38222869628553</v>
+      </c>
+      <c r="R79" t="n">
+        <v>174.4446718088318</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-56.20000000000073</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.1988346686088857</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>50</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-123275.0000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-61637.50000000007</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2366</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-61637.50000000007</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-661.8999999999978</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2347.599999999999</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-26.05135249366021</v>
+      </c>
+      <c r="R80" t="n">
+        <v>178.6611017945747</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-58.94999999999891</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.1661031276415892</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B81" t="n">
+        <v>73</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G81" t="n">
+        <v>50</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>50</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-127895.2999999998</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-63982.59999999987</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3386</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-63912.69999999987</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-956.5999999999985</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2395.299999999999</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-18.87557590076783</v>
+      </c>
+      <c r="R81" t="n">
+        <v>163.8639998834545</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-56</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.2359716479621973</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="n">
+        <v>13</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HK50</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" t="n">
         <v>-171867.8000000003</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L82" t="n">
         <v>-86054.00000000015</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M82" t="n">
         <v>3294</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N82" t="n">
         <v>-85813.80000000013</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O82" t="n">
         <v>-928.0999999999985</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P82" t="n">
         <v>1196.5</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q82" t="n">
         <v>-26.0515482695811</v>
       </c>
-      <c r="R70" t="n">
+      <c r="R82" t="n">
         <v>147.2071435455462</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S82" t="n">
         <v>-58</v>
       </c>
-      <c r="T70" t="n">
+      <c r="T82" t="n">
         <v>0.2595628415300547</v>
       </c>
     </row>
